--- a/ldd3_pdf/Linux Kernel and Device Drivers.xlsx
+++ b/ldd3_pdf/Linux Kernel and Device Drivers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="154">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t xml:space="preserve">skull exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-02-22</t>
   </si>
   <si>
     <t xml:space="preserve">An Introduction to Device Drivers</t>
@@ -65,6 +77,12 @@
 Modules</t>
   </si>
   <si>
+    <t xml:space="preserve">03-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hello world module</t>
   </si>
   <si>
@@ -102,6 +120,12 @@
     <t xml:space="preserve">Char Driver</t>
   </si>
   <si>
+    <t xml:space="preserve">08-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Design of scull</t>
   </si>
   <si>
@@ -136,6 +160,12 @@
   </si>
   <si>
     <t xml:space="preserve">Debugging Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-02-22</t>
   </si>
   <si>
     <t xml:space="preserve">Debugging Support in the Kernel
@@ -175,6 +205,12 @@
     <t xml:space="preserve">Concurrency and Race Conditions</t>
   </si>
   <si>
+    <t xml:space="preserve">15-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Semaphores and Mutexes</t>
   </si>
   <si>
@@ -194,6 +230,12 @@
   </si>
   <si>
     <t xml:space="preserve">Advanced Char Driver Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-02-22</t>
   </si>
   <si>
     <t xml:space="preserve">ioctl</t>
@@ -225,9 +267,15 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">22-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Using the jiffies Counter</t>
   </si>
   <si>
+    <t xml:space="preserve">implement the elapsed time by jiffies and converting time values expressed as jiffies to seconds or milliseconds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Processor-Specific Registers</t>
   </si>
   <si>
@@ -235,6 +283,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kernel Timers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> implement a periodic timer</t>
   </si>
   <si>
     <t xml:space="preserve">Tasklets</t>
@@ -247,6 +298,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">23-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Flags Argument
 </t>
   </si>
@@ -289,6 +346,9 @@
 with Hardware</t>
   </si>
   <si>
+    <t xml:space="preserve">25-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">I/O Ports and I/O Memory</t>
   </si>
   <si>
@@ -320,6 +380,9 @@
     <t xml:space="preserve">Interrupt Handling</t>
   </si>
   <si>
+    <t xml:space="preserve">28-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Installing an Interrupt Handler</t>
   </si>
   <si>
@@ -373,6 +436,9 @@
     <t xml:space="preserve">The Linux Device Model</t>
   </si>
   <si>
+    <t xml:space="preserve">02-03-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kobjects</t>
   </si>
   <si>
@@ -390,6 +456,9 @@
   <si>
     <t xml:space="preserve">Memory Mapping
 and DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-22</t>
   </si>
   <si>
     <t xml:space="preserve">Physical Addresses and Pages</t>
@@ -438,7 +507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,6 +534,13 @@
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF780373"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -525,7 +601,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,6 +626,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,6 +639,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF780373"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -567,13 +707,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E1001"/>
+  <dimension ref="B1:G1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E132" activeCellId="0" sqref="E132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G118" activeCellId="0" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
@@ -606,16 +746,28 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -624,70 +776,70 @@
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -699,119 +851,125 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -823,94 +981,100 @@
     </row>
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+      <c r="F27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,56 +1085,62 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
+      <c r="F37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -978,17 +1148,17 @@
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -996,17 +1166,17 @@
     <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1019,56 +1189,62 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
+      <c r="F48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1076,7 +1252,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1089,66 +1265,72 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
+      <c r="F56" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1159,26 +1341,34 @@
     </row>
     <row r="63" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -1186,25 +1376,27 @@
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2"/>
       <c r="C67" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -1212,7 +1404,7 @@
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -1225,82 +1417,88 @@
     </row>
     <row r="71" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
+      <c r="F71" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -1308,7 +1506,7 @@
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -1321,26 +1519,32 @@
     </row>
     <row r="81" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
+      <c r="F81" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -1348,27 +1552,27 @@
     <row r="84" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -1376,40 +1580,40 @@
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -1421,26 +1625,32 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
+      <c r="F92" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -1448,47 +1658,47 @@
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2"/>
       <c r="C97" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -1496,7 +1706,7 @@
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -1504,7 +1714,7 @@
     <row r="101" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="3"/>
@@ -1512,11 +1722,11 @@
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1527,7 +1737,7 @@
     </row>
     <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -1536,7 +1746,7 @@
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -1544,7 +1754,7 @@
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -1552,7 +1762,7 @@
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2"/>
       <c r="C107" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -1560,7 +1770,7 @@
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -1568,7 +1778,7 @@
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -1576,7 +1786,7 @@
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -1589,16 +1799,22 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
+      <c r="F112" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -1606,32 +1822,32 @@
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -1643,81 +1859,84 @@
     </row>
     <row r="118" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
+      <c r="F118" s="0" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2"/>
       <c r="C121" s="3" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>121</v>
+        <v>10</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -1729,7 +1948,7 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -1738,7 +1957,7 @@
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -1746,7 +1965,7 @@
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -1759,7 +1978,7 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -1767,7 +1986,7 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
